--- a/data/trans_orig/P27_1-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P27_1-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>14589</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7991</v>
+        <v>8215</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24392</v>
+        <v>23655</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03242946817986182</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01776397859522339</v>
+        <v>0.01826010856181097</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05422119752073849</v>
+        <v>0.05258125820761665</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -765,19 +765,19 @@
         <v>14172</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7920</v>
+        <v>8085</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22916</v>
+        <v>22944</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04851896483506228</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02711630937939361</v>
+        <v>0.0276807897944901</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07845827358904282</v>
+        <v>0.07855227324242144</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -786,19 +786,19 @@
         <v>28761</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18466</v>
+        <v>18955</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42431</v>
+        <v>42357</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03876343414039715</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02488865718139815</v>
+        <v>0.025546923398801</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05718776315334257</v>
+        <v>0.05708802425184274</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>88516</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>71802</v>
+        <v>72497</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>106403</v>
+        <v>105607</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1967594593036595</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1596062753655301</v>
+        <v>0.1611517404462548</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2365212529523373</v>
+        <v>0.2347512414896832</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>39</v>
@@ -836,19 +836,19 @@
         <v>40544</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29778</v>
+        <v>29740</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54076</v>
+        <v>52496</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1388101637027693</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1019483949835388</v>
+        <v>0.101818037793715</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1851388923886421</v>
+        <v>0.1797290364360531</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>124</v>
@@ -857,19 +857,19 @@
         <v>129060</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>109027</v>
+        <v>109659</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>150713</v>
+        <v>150965</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1739465103569688</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1469466258168801</v>
+        <v>0.1477984085304154</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2031303382177598</v>
+        <v>0.203470253889213</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>210521</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>188234</v>
+        <v>189436</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>231756</v>
+        <v>231974</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4679621263784568</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4184203644075</v>
+        <v>0.4210935509920045</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5151662391056883</v>
+        <v>0.5156512445036719</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>163</v>
@@ -907,19 +907,19 @@
         <v>168251</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>151034</v>
+        <v>151551</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>183784</v>
+        <v>186031</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5760358543411802</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5170894101905594</v>
+        <v>0.5188575893195653</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.629215250385693</v>
+        <v>0.6369076592474042</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>363</v>
@@ -928,19 +928,19 @@
         <v>378772</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>350824</v>
+        <v>350426</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>407963</v>
+        <v>406163</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5105076036431412</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4728391933116707</v>
+        <v>0.4723031727665589</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5498504011938373</v>
+        <v>0.5474249753229518</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>136242</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>117342</v>
+        <v>117283</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>156065</v>
+        <v>157554</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3028489461380219</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2608364214551491</v>
+        <v>0.2607069139007077</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3469127695491585</v>
+        <v>0.3502228212926954</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>69</v>
@@ -978,19 +978,19 @@
         <v>69118</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>55561</v>
+        <v>55547</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84763</v>
+        <v>83441</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2366350171209882</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1902229115442671</v>
+        <v>0.1901731704294628</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2901993948128579</v>
+        <v>0.285673453843422</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>202</v>
@@ -999,19 +999,19 @@
         <v>205359</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>179483</v>
+        <v>178522</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>232288</v>
+        <v>229515</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2767824518594929</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2419065087551829</v>
+        <v>0.2406111210070809</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3130767546661206</v>
+        <v>0.3093397077416365</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>20254</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11299</v>
+        <v>12121</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30960</v>
+        <v>31580</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05680027881666334</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03168880212191135</v>
+        <v>0.03399188357354995</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0868253550574852</v>
+        <v>0.088563243537748</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>17</v>
@@ -1124,19 +1124,19 @@
         <v>17263</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10513</v>
+        <v>10159</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>26623</v>
+        <v>26805</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04951920775273957</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03015682135188877</v>
+        <v>0.02914143490550929</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07636670861665847</v>
+        <v>0.07689089779052694</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>35</v>
@@ -1145,19 +1145,19 @@
         <v>37517</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>26912</v>
+        <v>26408</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>51555</v>
+        <v>50969</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05320085258451161</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03816261053774279</v>
+        <v>0.03744758950625236</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07310840946894881</v>
+        <v>0.07227723140401712</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>67028</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53103</v>
+        <v>54425</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>82956</v>
+        <v>84916</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.187975018770498</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1489240400146497</v>
+        <v>0.1526329265885085</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2326443975272317</v>
+        <v>0.2381422695611383</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -1195,19 +1195,19 @@
         <v>61606</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47333</v>
+        <v>48026</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76986</v>
+        <v>77783</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1767157479816562</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1357756379541391</v>
+        <v>0.1377634770275963</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2208344066979985</v>
+        <v>0.2231218457904829</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>127</v>
@@ -1216,19 +1216,19 @@
         <v>128633</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>108412</v>
+        <v>108570</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>150988</v>
+        <v>149824</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1824089537951046</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1537337084468611</v>
+        <v>0.1539588118406817</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2141093424494304</v>
+        <v>0.2124589437484127</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>152009</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>134025</v>
+        <v>130311</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>172484</v>
+        <v>170467</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4262997746420783</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3758646907852448</v>
+        <v>0.3654512001471515</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4837212509631429</v>
+        <v>0.4780641279311842</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>163</v>
@@ -1266,19 +1266,19 @@
         <v>169211</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>150624</v>
+        <v>150908</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>187799</v>
+        <v>189381</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4853834702294653</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.432066098148255</v>
+        <v>0.4328797563876404</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5387005153118054</v>
+        <v>0.54323961485149</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>307</v>
@@ -1287,19 +1287,19 @@
         <v>321220</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>295640</v>
+        <v>292752</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>349432</v>
+        <v>349697</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4555080328670849</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4192339350715745</v>
+        <v>0.4151383084866087</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4955142775680126</v>
+        <v>0.4958896755540745</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>117287</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>99869</v>
+        <v>100394</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>135893</v>
+        <v>134607</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3289249277707603</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2800783524897895</v>
+        <v>0.2815503639607572</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3811050209995214</v>
+        <v>0.3774991078437165</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>99</v>
@@ -1337,19 +1337,19 @@
         <v>100534</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>84628</v>
+        <v>84293</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>118312</v>
+        <v>117283</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.288381574036139</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2427561978753589</v>
+        <v>0.2417957793135327</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3393783005871084</v>
+        <v>0.3364261821308093</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>211</v>
@@ -1358,19 +1358,19 @@
         <v>217821</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>194048</v>
+        <v>193121</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>244753</v>
+        <v>244741</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3088821607532989</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2751710913608651</v>
+        <v>0.2738559487790526</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3470732358386939</v>
+        <v>0.3470557510759484</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>62166</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>48710</v>
+        <v>48716</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>76979</v>
+        <v>78322</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1183877750106094</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09276188620745282</v>
+        <v>0.09277392306624543</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1465975044885811</v>
+        <v>0.1491550691222912</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1483,19 +1483,19 @@
         <v>11656</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5971</v>
+        <v>6000</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18756</v>
+        <v>20079</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0719835716705757</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03687445145978789</v>
+        <v>0.03705310118651244</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1158271877668626</v>
+        <v>0.1240002577582644</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>72</v>
@@ -1504,19 +1504,19 @@
         <v>73822</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>59165</v>
+        <v>59725</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>91521</v>
+        <v>90586</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1074506866557131</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08611652108765745</v>
+        <v>0.0869309325536949</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1332108248334799</v>
+        <v>0.1318498194388625</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>100038</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>82135</v>
+        <v>83952</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>118950</v>
+        <v>120285</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1905102897900038</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1564163593452911</v>
+        <v>0.1598767375403419</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2265253515232234</v>
+        <v>0.2290682290534476</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>26</v>
@@ -1554,19 +1554,19 @@
         <v>28000</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>19080</v>
+        <v>19355</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>38504</v>
+        <v>38337</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1729179025866541</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1178297710249021</v>
+        <v>0.1195288518832938</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2377833956763594</v>
+        <v>0.2367488623819851</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>127</v>
@@ -1575,19 +1575,19 @@
         <v>128039</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>109662</v>
+        <v>110272</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>149222</v>
+        <v>149243</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1863639090880947</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1596156865763605</v>
+        <v>0.1605042485347575</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2171970990039637</v>
+        <v>0.2172276870030128</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>211918</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>191365</v>
+        <v>192132</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>234604</v>
+        <v>237014</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4035714331666361</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3644311456780532</v>
+        <v>0.3658913002265927</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4467732226996903</v>
+        <v>0.4513625820058578</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>66</v>
@@ -1625,19 +1625,19 @@
         <v>66057</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>54007</v>
+        <v>53984</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>79812</v>
+        <v>77823</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4079390642044701</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3335221545595197</v>
+        <v>0.3333809058020686</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4928837301280365</v>
+        <v>0.480597655325454</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>274</v>
@@ -1646,19 +1646,19 @@
         <v>277975</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>252632</v>
+        <v>251968</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>305193</v>
+        <v>302647</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4046008478128125</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3677121863813654</v>
+        <v>0.3667469235788307</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4442171444774315</v>
+        <v>0.4405106537485146</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>150984</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>130549</v>
+        <v>129959</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>172809</v>
+        <v>171438</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2875305020327506</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2486139161409033</v>
+        <v>0.2474908957620494</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.329092454762126</v>
+        <v>0.326481694119386</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>54</v>
@@ -1696,19 +1696,19 @@
         <v>56215</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>43612</v>
+        <v>45733</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>68343</v>
+        <v>69248</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3471594615383001</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2693260192010895</v>
+        <v>0.2824246595549266</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4220560458153212</v>
+        <v>0.4276429078808045</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>201</v>
@@ -1717,19 +1717,19 @@
         <v>207199</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>183752</v>
+        <v>184453</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>233271</v>
+        <v>233195</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3015845564433797</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2674560073568137</v>
+        <v>0.2684759939128161</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3395327543194491</v>
+        <v>0.3394217867018988</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>120225</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>99877</v>
+        <v>100269</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>142067</v>
+        <v>141790</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1027104589228132</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08532651946495974</v>
+        <v>0.08566112102558193</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1213698801181518</v>
+        <v>0.121133228688634</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>45</v>
@@ -1842,19 +1842,19 @@
         <v>45489</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33533</v>
+        <v>33771</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>59004</v>
+        <v>60162</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06675731221075795</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04921107614488118</v>
+        <v>0.04956043209441825</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08659073816951593</v>
+        <v>0.08829067908440844</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>161</v>
@@ -1863,19 +1863,19 @@
         <v>165714</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>142690</v>
+        <v>141348</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>193189</v>
+        <v>190404</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08948166439377937</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07704894578755644</v>
+        <v>0.07632461148879441</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.104317337928394</v>
+        <v>0.1028133336401387</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>259784</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>230451</v>
+        <v>232835</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>289137</v>
+        <v>289277</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2219382002848817</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1968780601622005</v>
+        <v>0.1989150589733431</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2470150056757676</v>
+        <v>0.2471340340746582</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>113</v>
@@ -1913,19 +1913,19 @@
         <v>117510</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>97674</v>
+        <v>97063</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>138822</v>
+        <v>136948</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1724513236713372</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1433399737003083</v>
+        <v>0.1424437224635756</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.203726316006025</v>
+        <v>0.2009766721896681</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>362</v>
@@ -1934,19 +1934,19 @@
         <v>377295</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>345443</v>
+        <v>341124</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>413386</v>
+        <v>411339</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2037297322515476</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1865304390326695</v>
+        <v>0.1841984655757888</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2232182894628461</v>
+        <v>0.2221124697114767</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>419694</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>385854</v>
+        <v>390541</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>449517</v>
+        <v>454186</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3585515082867149</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.329641519882156</v>
+        <v>0.3336459226857694</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3840296586038333</v>
+        <v>0.388019137749173</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>294</v>
@@ -1984,19 +1984,19 @@
         <v>306408</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>277119</v>
+        <v>280835</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>331782</v>
+        <v>333327</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4496656081645819</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4066828710355066</v>
+        <v>0.4121368250394444</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4869030590591281</v>
+        <v>0.4891710771325966</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>710</v>
@@ -2005,19 +2005,19 @@
         <v>726101</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>684116</v>
+        <v>684133</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>764690</v>
+        <v>770517</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3920765211495811</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3694053579413783</v>
+        <v>0.3694146235687693</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4129135113075903</v>
+        <v>0.4160596163580348</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>370822</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>341515</v>
+        <v>340302</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>406671</v>
+        <v>403064</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3167998325055902</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2917621788035234</v>
+        <v>0.2907255502715427</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3474260814207893</v>
+        <v>0.3443439759252979</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>210</v>
@@ -2055,19 +2055,19 @@
         <v>212005</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>189926</v>
+        <v>185977</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>240128</v>
+        <v>236252</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3111257559533229</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2787236927247473</v>
+        <v>0.2729290629159076</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3523983047902661</v>
+        <v>0.3467098646780877</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>585</v>
@@ -2076,19 +2076,19 @@
         <v>582827</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>540746</v>
+        <v>547036</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>623260</v>
+        <v>622171</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3147120822050919</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2919891314639232</v>
+        <v>0.2953854486059663</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3365446465905559</v>
+        <v>0.3359566639788644</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>33853</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23217</v>
+        <v>24144</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>45644</v>
+        <v>45300</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1044650985734971</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07164593320417513</v>
+        <v>0.07450702985369451</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1408512103933134</v>
+        <v>0.1397908495363208</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>40</v>
@@ -2201,19 +2201,19 @@
         <v>43083</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>30780</v>
+        <v>31645</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>56711</v>
+        <v>57276</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08079397632479859</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05772288071841414</v>
+        <v>0.05934425433625607</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1063507489731288</v>
+        <v>0.1074104917723223</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>75</v>
@@ -2222,19 +2222,19 @@
         <v>76935</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>60426</v>
+        <v>60447</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>94392</v>
+        <v>96137</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08974159388041827</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07048434023658039</v>
+        <v>0.0705082557297477</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1101041499348589</v>
+        <v>0.1121398430548098</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>82461</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>67177</v>
+        <v>66614</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>99401</v>
+        <v>99004</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2544641396538717</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2073011109051625</v>
+        <v>0.2055641315645308</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3067391141896303</v>
+        <v>0.3055161791318263</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>74</v>
@@ -2272,19 +2272,19 @@
         <v>79071</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>63227</v>
+        <v>62246</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>97509</v>
+        <v>96074</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1482835173504023</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1185714914941106</v>
+        <v>0.1167305421195695</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1828610778593018</v>
+        <v>0.180170224504437</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>155</v>
@@ -2293,19 +2293,19 @@
         <v>161532</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>136560</v>
+        <v>138102</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>185383</v>
+        <v>185833</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1884194935921448</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1592904365643723</v>
+        <v>0.1610891706550974</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2162402262436509</v>
+        <v>0.2167661823771437</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>100366</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>84048</v>
+        <v>83253</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>118174</v>
+        <v>117492</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.30971931397032</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2593612831460543</v>
+        <v>0.2569106258502391</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3646729099888068</v>
+        <v>0.3625658587719061</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>187</v>
@@ -2343,19 +2343,19 @@
         <v>194818</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>171145</v>
+        <v>174139</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>216099</v>
+        <v>219611</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3653457197441364</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3209527692801676</v>
+        <v>0.3265659857268765</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4052542008651054</v>
+        <v>0.4118409635048755</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>279</v>
@@ -2364,19 +2364,19 @@
         <v>295184</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>267295</v>
+        <v>264558</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>324519</v>
+        <v>323192</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3443190949973866</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3117869219614597</v>
+        <v>0.3085943795155281</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3785360622624643</v>
+        <v>0.376988436757481</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>107376</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>91264</v>
+        <v>91419</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>125158</v>
+        <v>126553</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3313514478023112</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2816313434556924</v>
+        <v>0.2821091914282247</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3862227607209109</v>
+        <v>0.3905291165400132</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>204</v>
@@ -2414,19 +2414,19 @@
         <v>216271</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>194297</v>
+        <v>195328</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>237870</v>
+        <v>241709</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4055767865806627</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3643701333589931</v>
+        <v>0.3663018111896939</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4460818173201642</v>
+        <v>0.4532826338673073</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>311</v>
@@ -2435,19 +2435,19 @@
         <v>323647</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>295076</v>
+        <v>294779</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>353202</v>
+        <v>354667</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3775198175300503</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3441931568916479</v>
+        <v>0.3438466337944478</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.411993865324794</v>
+        <v>0.413702504204644</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>8819</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3907</v>
+        <v>4004</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>17631</v>
+        <v>16683</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03135858452023547</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01389157178590991</v>
+        <v>0.01423626138308127</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06269209611265386</v>
+        <v>0.05932093012740657</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>23</v>
@@ -2560,19 +2560,19 @@
         <v>22652</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14665</v>
+        <v>15131</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>32635</v>
+        <v>32983</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01899935041847628</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01230045773453484</v>
+        <v>0.01269067003469684</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0273727453891575</v>
+        <v>0.02766400706458466</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>31</v>
@@ -2581,19 +2581,19 @@
         <v>31471</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>21975</v>
+        <v>21943</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>43114</v>
+        <v>45565</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02135820609095558</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01491344553812801</v>
+        <v>0.01489195681596732</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02926011995771561</v>
+        <v>0.0309233835395508</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>54127</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>42199</v>
+        <v>40686</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>67838</v>
+        <v>68052</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1924684724547049</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.150055009485052</v>
+        <v>0.144673376741831</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2412235442027647</v>
+        <v>0.2419836456416732</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>143</v>
@@ -2631,19 +2631,19 @@
         <v>141054</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>121273</v>
+        <v>122016</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>164109</v>
+        <v>165319</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1183086479428701</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1017170957251895</v>
+        <v>0.102340101529331</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1376452402364703</v>
+        <v>0.1386607939579048</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>198</v>
@@ -2652,19 +2652,19 @@
         <v>195181</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>170167</v>
+        <v>173178</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>223925</v>
+        <v>222309</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1324626255501808</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1154862577901529</v>
+        <v>0.1175299717959256</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1519700512776009</v>
+        <v>0.150873179328117</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>116231</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>100991</v>
+        <v>99671</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>133657</v>
+        <v>133685</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4132999918220367</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3591112583262888</v>
+        <v>0.3544147054212557</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4752637789048949</v>
+        <v>0.4753634910547918</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>407</v>
@@ -2702,19 +2702,19 @@
         <v>410257</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>378055</v>
+        <v>378250</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>442363</v>
+        <v>443771</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3441012001525434</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3170913809847806</v>
+        <v>0.317255392347153</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3710295218085946</v>
+        <v>0.3722108302534999</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>525</v>
@@ -2723,19 +2723,19 @@
         <v>526488</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>492870</v>
+        <v>490600</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>564571</v>
+        <v>563839</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3573083261697667</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3344929174471092</v>
+        <v>0.332952426271384</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3831541760517335</v>
+        <v>0.3826570453023214</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>102049</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>85600</v>
+        <v>87310</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>118853</v>
+        <v>118719</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3628729512030229</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3043816115541906</v>
+        <v>0.3104604334562022</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4226229840466651</v>
+        <v>0.4221465450949544</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>609</v>
@@ -2773,19 +2773,19 @@
         <v>618294</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>583304</v>
+        <v>582885</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>654090</v>
+        <v>653995</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5185908014861103</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4892431643162612</v>
+        <v>0.488891807683645</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5486144267209311</v>
+        <v>0.5485344403090231</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>716</v>
@@ -2794,19 +2794,19 @@
         <v>720343</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>681670</v>
+        <v>682561</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>759079</v>
+        <v>757905</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4888708421890969</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4626250954514347</v>
+        <v>0.4632294093581673</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5151599150376498</v>
+        <v>0.5143628988355994</v>
       </c>
     </row>
     <row r="33">
@@ -2898,19 +2898,19 @@
         <v>259906</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>232240</v>
+        <v>230922</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>293783</v>
+        <v>295977</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.08364194322285513</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07473856907836736</v>
+        <v>0.07431463577065356</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.09454426634265696</v>
+        <v>0.09525031939535007</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>150</v>
@@ -2919,19 +2919,19 @@
         <v>154315</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>131331</v>
+        <v>131793</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>178759</v>
+        <v>177813</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04808012698294695</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04091899376811883</v>
+        <v>0.04106288982384529</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05569604657140927</v>
+        <v>0.05540133631288253</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>400</v>
@@ -2940,19 +2940,19 @@
         <v>414221</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>375085</v>
+        <v>378822</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>456883</v>
+        <v>452432</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06557341817249961</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05937809252439122</v>
+        <v>0.05996965240683065</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.07232710779760948</v>
+        <v>0.07162240590494962</v>
       </c>
     </row>
     <row r="35">
@@ -2969,19 +2969,19 @@
         <v>651954</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>607434</v>
+        <v>606610</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>697301</v>
+        <v>696881</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.209809571589346</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.19548247772684</v>
+        <v>0.195217047714026</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2244029659016903</v>
+        <v>0.2242679365205395</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>456</v>
@@ -2990,19 +2990,19 @@
         <v>467786</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>431891</v>
+        <v>428148</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>508205</v>
+        <v>510172</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1457486760859896</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1345648048143737</v>
+        <v>0.1333986418192744</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1583420346379165</v>
+        <v>0.1589549563645261</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1093</v>
@@ -3011,19 +3011,19 @@
         <v>1119740</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1066539</v>
+        <v>1051801</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1185661</v>
+        <v>1179518</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1772610119954846</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1688390815087902</v>
+        <v>0.1665059413399648</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.187696705489355</v>
+        <v>0.186724161584706</v>
       </c>
     </row>
     <row r="36">
@@ -3040,19 +3040,19 @@
         <v>1210739</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1158168</v>
+        <v>1157570</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1262501</v>
+        <v>1267724</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3896358782433045</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3727177386464378</v>
+        <v>0.3725252033944373</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4062936451545505</v>
+        <v>0.4079745011212902</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1280</v>
@@ -3061,19 +3061,19 @@
         <v>1315002</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1259013</v>
+        <v>1257672</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1370314</v>
+        <v>1366895</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4097168795602619</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3922721833766684</v>
+        <v>0.3918545061310285</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4269503669684002</v>
+        <v>0.4258850954875425</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2458</v>
@@ -3082,19 +3082,19 @@
         <v>2525741</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2452105</v>
+        <v>2448066</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2602862</v>
+        <v>2603840</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3998387900654652</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.38818168773165</v>
+        <v>0.3875423814357191</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4120474621382344</v>
+        <v>0.4122022408485555</v>
       </c>
     </row>
     <row r="37">
@@ -3111,19 +3111,19 @@
         <v>984762</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>934730</v>
+        <v>930829</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1035525</v>
+        <v>1031991</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3169126069444944</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3008117218448146</v>
+        <v>0.299556195704457</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3332490312267329</v>
+        <v>0.3321119196317735</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1245</v>
@@ -3132,19 +3132,19 @@
         <v>1272436</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1220500</v>
+        <v>1220461</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1323861</v>
+        <v>1332802</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3964543173708016</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3802727218151802</v>
+        <v>0.3802605705926928</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4124771476977804</v>
+        <v>0.4152626850292979</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2226</v>
@@ -3153,19 +3153,19 @@
         <v>2257197</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2190130</v>
+        <v>2183916</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2330478</v>
+        <v>2335460</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3573267797665506</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.34670971296818</v>
+        <v>0.3457260024876541</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3689275524588549</v>
+        <v>0.3697162080768843</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7767</v>
+        <v>7569</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005116953579390623</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01838284008886154</v>
+        <v>0.01791532039812069</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7761</v>
+        <v>6642</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007286326836688377</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02609194011907827</v>
+        <v>0.02233031912147793</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -3541,19 +3541,19 @@
         <v>4329</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10698</v>
+        <v>10903</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006013234447826192</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001550377843138489</v>
+        <v>0.001557665978674458</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01486019808289129</v>
+        <v>0.01514473067905992</v>
       </c>
     </row>
     <row r="5">
@@ -3570,19 +3570,19 @@
         <v>11862</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5853</v>
+        <v>5995</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20723</v>
+        <v>20984</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02807584589653396</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01385290868511169</v>
+        <v>0.01419065919032164</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04905094384079067</v>
+        <v>0.04966731020799389</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -3591,19 +3591,19 @@
         <v>13380</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7266</v>
+        <v>7097</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22922</v>
+        <v>23864</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04498537200109475</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02442780495004994</v>
+        <v>0.02385861980894037</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07706540674480762</v>
+        <v>0.08023012168151877</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -3612,19 +3612,19 @@
         <v>25242</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16314</v>
+        <v>16254</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36616</v>
+        <v>37428</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03506205017965863</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02266037278510676</v>
+        <v>0.02257738700173819</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05086040816423996</v>
+        <v>0.05198852826902695</v>
       </c>
     </row>
     <row r="6">
@@ -3641,19 +3641,19 @@
         <v>70825</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56155</v>
+        <v>56130</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>87017</v>
+        <v>87430</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1676363407032797</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1329135415074293</v>
+        <v>0.1328556987850928</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2059623288677356</v>
+        <v>0.2069396926658472</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -3662,19 +3662,19 @@
         <v>25004</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16438</v>
+        <v>16303</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36340</v>
+        <v>36706</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08406353599786835</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05526454690765477</v>
+        <v>0.05481027471983285</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1221751249120531</v>
+        <v>0.1234049455210648</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>92</v>
@@ -3683,19 +3683,19 @@
         <v>95828</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>77643</v>
+        <v>79075</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>114784</v>
+        <v>116770</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1331080705095804</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1078483508849189</v>
+        <v>0.1098373558365288</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1594378495918697</v>
+        <v>0.1621962489801382</v>
       </c>
     </row>
     <row r="7">
@@ -3712,19 +3712,19 @@
         <v>337641</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>319045</v>
+        <v>319569</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>353812</v>
+        <v>353127</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7991708598207957</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.755155178729691</v>
+        <v>0.7563958483227605</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8374475025973823</v>
+        <v>0.8358247980478329</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>231</v>
@@ -3733,19 +3733,19 @@
         <v>256889</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>242509</v>
+        <v>243659</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>267219</v>
+        <v>268312</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8636647651643485</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8153195782018821</v>
+        <v>0.8191857644754671</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8983930383260056</v>
+        <v>0.9020675080101146</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>539</v>
@@ -3754,19 +3754,19 @@
         <v>594530</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>572709</v>
+        <v>570142</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>614351</v>
+        <v>612886</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8258166448629347</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7955058292399365</v>
+        <v>0.7919407110853467</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8533488241020599</v>
+        <v>0.851313769953289</v>
       </c>
     </row>
     <row r="8">
@@ -3858,19 +3858,19 @@
         <v>8811</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4563</v>
+        <v>3897</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15375</v>
+        <v>16239</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02215472072922245</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01147309473640486</v>
+        <v>0.009798409238673658</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03866073088882969</v>
+        <v>0.0408326690186336</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -3879,19 +3879,19 @@
         <v>7037</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3007</v>
+        <v>3003</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13924</v>
+        <v>14372</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02166464671147778</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.009258973295112273</v>
+        <v>0.009246526059717328</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04286857189760212</v>
+        <v>0.04424818926110441</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>16</v>
@@ -3900,19 +3900,19 @@
         <v>15847</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9680</v>
+        <v>9882</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>25366</v>
+        <v>24947</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02193440354310632</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01339757872489453</v>
+        <v>0.01367803186800964</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03510886648394744</v>
+        <v>0.03452883010691616</v>
       </c>
     </row>
     <row r="10">
@@ -3929,19 +3929,19 @@
         <v>11487</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5753</v>
+        <v>6146</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20612</v>
+        <v>21526</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02888465984788018</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01446504938831022</v>
+        <v>0.01545542017227985</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05182896038970283</v>
+        <v>0.05412840052661879</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -3950,19 +3950,19 @@
         <v>9839</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4112</v>
+        <v>4196</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20224</v>
+        <v>18093</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03029399966198641</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0126593321896256</v>
+        <v>0.01291997221557416</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06226584946325379</v>
+        <v>0.05570497000361989</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -3971,19 +3971,19 @@
         <v>21327</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13491</v>
+        <v>12964</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33245</v>
+        <v>33012</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02951824124759252</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01867239986903133</v>
+        <v>0.01794314299002665</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04601461941700381</v>
+        <v>0.04569253693083421</v>
       </c>
     </row>
     <row r="11">
@@ -4000,19 +4000,19 @@
         <v>57770</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>44667</v>
+        <v>42420</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>75605</v>
+        <v>73418</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1452650772020479</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1123171409186106</v>
+        <v>0.1066668954140333</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1901121669968908</v>
+        <v>0.184614009372071</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>46</v>
@@ -4021,19 +4021,19 @@
         <v>52512</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>39814</v>
+        <v>39529</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>68818</v>
+        <v>68489</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1616750033504771</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.122579153500859</v>
+        <v>0.1217019351639688</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2118783136836505</v>
+        <v>0.2108654417679733</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>98</v>
@@ -4042,19 +4042,19 @@
         <v>110282</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>92433</v>
+        <v>91201</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>132962</v>
+        <v>132262</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1526423072172885</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1279379513870303</v>
+        <v>0.1262322551990515</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1840346667617787</v>
+        <v>0.18306539830916</v>
       </c>
     </row>
     <row r="12">
@@ -4071,19 +4071,19 @@
         <v>319618</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>300353</v>
+        <v>301260</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>334270</v>
+        <v>335596</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8036955422208495</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7552507289353627</v>
+        <v>0.7575332480908646</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8405375997102223</v>
+        <v>0.8438720938082432</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>231</v>
@@ -4092,19 +4092,19 @@
         <v>255412</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>236976</v>
+        <v>237671</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>269830</v>
+        <v>269749</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7863663502760587</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7296048099698136</v>
+        <v>0.7317467285755669</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8307585536229244</v>
+        <v>0.830507668440467</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>513</v>
@@ -4113,19 +4113,19 @@
         <v>575030</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>549270</v>
+        <v>551979</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>596155</v>
+        <v>597224</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7959050479920127</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7602499971781195</v>
+        <v>0.7639994355164775</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8251437902396981</v>
+        <v>0.8266242776447602</v>
       </c>
     </row>
     <row r="13">
@@ -4217,19 +4217,19 @@
         <v>13893</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7827</v>
+        <v>8061</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23180</v>
+        <v>22892</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02252170678363031</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0126875125798169</v>
+        <v>0.01306788382631652</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03757468443190827</v>
+        <v>0.03710892214713098</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6469</v>
+        <v>6028</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007499078689600993</v>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02586671817532371</v>
+        <v>0.02410524538299134</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -4259,19 +4259,19 @@
         <v>15769</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9662</v>
+        <v>9193</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>25368</v>
+        <v>24789</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01818827155718455</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01114487280027583</v>
+        <v>0.01060343239845197</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02926011067668368</v>
+        <v>0.02859268494971011</v>
       </c>
     </row>
     <row r="15">
@@ -4288,19 +4288,19 @@
         <v>34511</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>23979</v>
+        <v>23516</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>47155</v>
+        <v>49039</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05594263923638888</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03887129812499854</v>
+        <v>0.03812031013392506</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07643886182613761</v>
+        <v>0.07949350718690774</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>7</v>
@@ -4309,19 +4309,19 @@
         <v>7001</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2987</v>
+        <v>3051</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>14069</v>
+        <v>14095</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02799395368213277</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01194317726937918</v>
+        <v>0.01219922921833162</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05625773616551763</v>
+        <v>0.05635845879057266</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>41</v>
@@ -4330,19 +4330,19 @@
         <v>41512</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>30529</v>
+        <v>29856</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>54712</v>
+        <v>55811</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04788054665474497</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03521317579367775</v>
+        <v>0.03443648220430939</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0631058572063065</v>
+        <v>0.0643736496627863</v>
       </c>
     </row>
     <row r="16">
@@ -4359,19 +4359,19 @@
         <v>73066</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>58877</v>
+        <v>56957</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>90951</v>
+        <v>91426</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.118441407460839</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09544176028734468</v>
+        <v>0.09232883698221621</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1474340715020745</v>
+        <v>0.1482034485628499</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -4380,19 +4380,19 @@
         <v>21903</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14036</v>
+        <v>14199</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32259</v>
+        <v>33206</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08757981281420833</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05612268147403298</v>
+        <v>0.05677435122921363</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1289876623787086</v>
+        <v>0.1327749131684811</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>93</v>
@@ -4401,19 +4401,19 @@
         <v>94968</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>78700</v>
+        <v>77390</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>113806</v>
+        <v>114430</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1095390555854602</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09077497420098063</v>
+        <v>0.08926348106947361</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1312672341812492</v>
+        <v>0.1319864700793974</v>
       </c>
     </row>
     <row r="17">
@@ -4430,19 +4430,19 @@
         <v>495422</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>475482</v>
+        <v>474147</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>513762</v>
+        <v>513835</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8030942465191419</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.770769541829602</v>
+        <v>0.7686064494133743</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8328225355171415</v>
+        <v>0.8329420483258028</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>204</v>
@@ -4451,19 +4451,19 @@
         <v>219311</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>206341</v>
+        <v>207838</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>228661</v>
+        <v>228526</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8769271548140579</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8250670489761841</v>
+        <v>0.8310515333981383</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9143136330191911</v>
+        <v>0.9137749656808668</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>662</v>
@@ -4472,19 +4472,19 @@
         <v>714733</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>693504</v>
+        <v>690841</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>737403</v>
+        <v>734940</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8243921262026103</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7999062405478414</v>
+        <v>0.7968339651376138</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8505396224810128</v>
+        <v>0.8476996516654044</v>
       </c>
     </row>
     <row r="18">
@@ -4576,19 +4576,19 @@
         <v>31076</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20964</v>
+        <v>20942</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>43880</v>
+        <v>43514</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02752691498059969</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01856980531982806</v>
+        <v>0.01854989080245336</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03886806721599724</v>
+        <v>0.03854380303623016</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -4597,19 +4597,19 @@
         <v>12293</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6945</v>
+        <v>6884</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20726</v>
+        <v>21642</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01659708780034588</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009376066114300705</v>
+        <v>0.009294450733064449</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0279826243229374</v>
+        <v>0.02921916296973989</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -4618,19 +4618,19 @@
         <v>43369</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>31065</v>
+        <v>32319</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>58573</v>
+        <v>58463</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02319691906249431</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01661546793544234</v>
+        <v>0.01728644458578171</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03132905561330115</v>
+        <v>0.03126998638211435</v>
       </c>
     </row>
     <row r="20">
@@ -4647,19 +4647,19 @@
         <v>47270</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>34986</v>
+        <v>33736</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>63075</v>
+        <v>62021</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04187095895275186</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03098983867685713</v>
+        <v>0.02988266750808145</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05587057408625667</v>
+        <v>0.05493735879082069</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>40</v>
@@ -4668,19 +4668,19 @@
         <v>41343</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30090</v>
+        <v>28861</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>56995</v>
+        <v>53866</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0558181376213476</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04062503443015091</v>
+        <v>0.03896562842654555</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07695061223467159</v>
+        <v>0.07272613591864498</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>83</v>
@@ -4689,19 +4689,19 @@
         <v>88613</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>70232</v>
+        <v>70724</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>108653</v>
+        <v>109366</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0473963186595559</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03756517667384125</v>
+        <v>0.03782821372669032</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05811497286098759</v>
+        <v>0.05849632866877689</v>
       </c>
     </row>
     <row r="21">
@@ -4718,19 +4718,19 @@
         <v>131045</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>111106</v>
+        <v>110500</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>154095</v>
+        <v>152459</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1160775764185287</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09841602035193353</v>
+        <v>0.09787942091803109</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1364947490213432</v>
+        <v>0.1350458331219217</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>82</v>
@@ -4739,19 +4739,19 @@
         <v>87199</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>70808</v>
+        <v>70623</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>107066</v>
+        <v>106757</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1177298511057584</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09559990421132614</v>
+        <v>0.09534980249327289</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.144552373695152</v>
+        <v>0.1441349489883852</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>207</v>
@@ -4760,19 +4760,19 @@
         <v>218244</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>190128</v>
+        <v>190048</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>245676</v>
+        <v>247074</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1167321469376508</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1016935740024845</v>
+        <v>0.101651021161875</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1314046888120632</v>
+        <v>0.13215252273105</v>
       </c>
     </row>
     <row r="22">
@@ -4789,19 +4789,19 @@
         <v>919552</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>892733</v>
+        <v>892496</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>945993</v>
+        <v>945317</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8145245496481197</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7907692646911332</v>
+        <v>0.7905585704360432</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8379454515517292</v>
+        <v>0.8373472618700584</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>552</v>
@@ -4810,19 +4810,19 @@
         <v>599838</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>577633</v>
+        <v>575622</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>620867</v>
+        <v>620929</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8098549234725481</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7798760623852551</v>
+        <v>0.7771603480724616</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8382467844694045</v>
+        <v>0.8383314894703835</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1411</v>
@@ -4831,19 +4831,19 @@
         <v>1519389</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1484255</v>
+        <v>1482866</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1554908</v>
+        <v>1554309</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8126746153402989</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7938820185797514</v>
+        <v>0.7931393161016261</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8316725291575926</v>
+        <v>0.8313517630296787</v>
       </c>
     </row>
     <row r="23">
@@ -4935,19 +4935,19 @@
         <v>8968</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4816</v>
+        <v>3953</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16045</v>
+        <v>16132</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01804545074200171</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.009690681337925578</v>
+        <v>0.007953947906415184</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03228690751413955</v>
+        <v>0.03246187429605085</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>20</v>
@@ -4956,19 +4956,19 @@
         <v>21062</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12462</v>
+        <v>12424</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>31392</v>
+        <v>30762</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02824739184345866</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01671312568108031</v>
+        <v>0.0166622351417394</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04210135307258492</v>
+        <v>0.04125725270776567</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>29</v>
@@ -4977,19 +4977,19 @@
         <v>30030</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>20563</v>
+        <v>20734</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>44337</v>
+        <v>42208</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02416731923953837</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0165487373631228</v>
+        <v>0.01668665196445042</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03568166602426193</v>
+        <v>0.03396809222001142</v>
       </c>
     </row>
     <row r="25">
@@ -5006,19 +5006,19 @@
         <v>31075</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21306</v>
+        <v>21366</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45121</v>
+        <v>43743</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06253339767454125</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04287406835213847</v>
+        <v>0.04299554303985041</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09079759954796306</v>
+        <v>0.08802434066781083</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>23</v>
@@ -5027,19 +5027,19 @@
         <v>24303</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>15954</v>
+        <v>16179</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35881</v>
+        <v>35587</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03259446765645836</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02139646875528699</v>
+        <v>0.02169823594447713</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0481220501399939</v>
+        <v>0.04772795393830947</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>52</v>
@@ -5048,19 +5048,19 @@
         <v>55379</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>41958</v>
+        <v>42867</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>72898</v>
+        <v>71498</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04456797416298209</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03376752249071437</v>
+        <v>0.03449895169522839</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05866736265227509</v>
+        <v>0.05754018725011816</v>
       </c>
     </row>
     <row r="26">
@@ -5077,19 +5077,19 @@
         <v>56012</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>43315</v>
+        <v>43766</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>70851</v>
+        <v>71133</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1127142561781252</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08716301269179678</v>
+        <v>0.08807145115641056</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.142574382001237</v>
+        <v>0.1431417089040828</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>65</v>
@@ -5098,19 +5098,19 @@
         <v>69560</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>54938</v>
+        <v>53865</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>86702</v>
+        <v>89141</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09329135007337945</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0736809108461957</v>
+        <v>0.07224169192731904</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1162803253267796</v>
+        <v>0.11955177802886</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>121</v>
@@ -5119,19 +5119,19 @@
         <v>125573</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>104935</v>
+        <v>104694</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>148844</v>
+        <v>147344</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1010591725199501</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08445032413570869</v>
+        <v>0.08425660829253252</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1197877110059951</v>
+        <v>0.1185802424240226</v>
       </c>
     </row>
     <row r="27">
@@ -5148,19 +5148,19 @@
         <v>400886</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>382421</v>
+        <v>380466</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>418217</v>
+        <v>417444</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8067068954053319</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7695504471218576</v>
+        <v>0.7656165761096718</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8415823086510587</v>
+        <v>0.8400269199129473</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>580</v>
@@ -5169,19 +5169,19 @@
         <v>630700</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>609285</v>
+        <v>609438</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>649358</v>
+        <v>650583</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8458667904267035</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8171454969752106</v>
+        <v>0.8173504220440706</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8708902174720538</v>
+        <v>0.8725320939773038</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>962</v>
@@ -5190,19 +5190,19 @@
         <v>1031586</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1000844</v>
+        <v>1003761</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1056110</v>
+        <v>1057730</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8302055340775294</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8054650789204643</v>
+        <v>0.8078122591521716</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8499419850178516</v>
+        <v>0.8512461900807775</v>
       </c>
     </row>
     <row r="28">
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6242</v>
+        <v>6713</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.007723837952077387</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02380822044295939</v>
+        <v>0.02560434609327001</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -5315,19 +5315,19 @@
         <v>10747</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5577</v>
+        <v>4944</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19080</v>
+        <v>19853</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01009935247356515</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.005240669702520783</v>
+        <v>0.004646204492938978</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01793031392697649</v>
+        <v>0.01865723602862344</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>12</v>
@@ -5336,19 +5336,19 @@
         <v>12772</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6527</v>
+        <v>7059</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>21267</v>
+        <v>21921</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.009629742109191141</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004921350850316093</v>
+        <v>0.005322647581512627</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01603508865938509</v>
+        <v>0.01652817271559168</v>
       </c>
     </row>
     <row r="30">
@@ -5365,19 +5365,19 @@
         <v>12386</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6764</v>
+        <v>6546</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>20178</v>
+        <v>19143</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0472418845316606</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02579811456986213</v>
+        <v>0.02496732224994308</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07695724205725145</v>
+        <v>0.0730105797553556</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>39</v>
@@ -5386,19 +5386,19 @@
         <v>39743</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>29345</v>
+        <v>28342</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>55264</v>
+        <v>53435</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03734868275029338</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02757706005674547</v>
+        <v>0.02663459777220148</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05193488209789669</v>
+        <v>0.05021559036362111</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>52</v>
@@ -5407,19 +5407,19 @@
         <v>52129</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>39648</v>
+        <v>39298</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>67920</v>
+        <v>66829</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0393044485649615</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02989403112294899</v>
+        <v>0.0296301401494229</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05121015073118707</v>
+        <v>0.05038744690360313</v>
       </c>
     </row>
     <row r="31">
@@ -5436,19 +5436,19 @@
         <v>50508</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>38276</v>
+        <v>39097</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>63822</v>
+        <v>65000</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1926365405745725</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1459844188891498</v>
+        <v>0.1491137280703807</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2434151333454588</v>
+        <v>0.2479107786242884</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>109</v>
@@ -5457,19 +5457,19 @@
         <v>112349</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>94857</v>
+        <v>91137</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>133755</v>
+        <v>134041</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.105581164649142</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08914217410990204</v>
+        <v>0.085647020693651</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1256973876080268</v>
+        <v>0.1259656097782071</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>160</v>
@@ -5478,19 +5478,19 @@
         <v>162857</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>139995</v>
+        <v>140774</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>186154</v>
+        <v>186249</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1227909549658325</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1055533612915461</v>
+        <v>0.1061407966811225</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.14035640613053</v>
+        <v>0.1404274644439089</v>
       </c>
     </row>
     <row r="32">
@@ -5507,19 +5507,19 @@
         <v>197273</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>183619</v>
+        <v>183103</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>211204</v>
+        <v>210366</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7523977369416895</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7003207350119927</v>
+        <v>0.6983517550026296</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8055276746503043</v>
+        <v>0.8023334080827881</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>843</v>
@@ -5528,19 +5528,19 @@
         <v>901266</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>875123</v>
+        <v>876515</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>922080</v>
+        <v>925678</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8469708001269994</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.822402556067256</v>
+        <v>0.8237112170662262</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8665306628736326</v>
+        <v>0.8699122142451626</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1037</v>
@@ -5549,19 +5549,19 @@
         <v>1098539</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1070474</v>
+        <v>1070578</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1125180</v>
+        <v>1123687</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8282748543600148</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8071143556667982</v>
+        <v>0.8071927177387035</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8483616276945408</v>
+        <v>0.8472356059695687</v>
       </c>
     </row>
     <row r="33">
@@ -5653,19 +5653,19 @@
         <v>66935</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>52143</v>
+        <v>51958</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>84841</v>
+        <v>85114</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02012992785448699</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01568138407190706</v>
+        <v>0.01562565442792797</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02551509869836505</v>
+        <v>0.02559710068018084</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>53</v>
@@ -5674,19 +5674,19 @@
         <v>55181</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>42163</v>
+        <v>43339</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>72326</v>
+        <v>73079</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01612194810072263</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0123183774695893</v>
+        <v>0.01266223205121747</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02113109817308687</v>
+        <v>0.02135094898413496</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>119</v>
@@ -5695,19 +5695,19 @@
         <v>122116</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>102108</v>
+        <v>102057</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>146617</v>
+        <v>146310</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01809695548629647</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01513184445715026</v>
+        <v>0.01512434728600218</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02172789656074281</v>
+        <v>0.02168242421727631</v>
       </c>
     </row>
     <row r="35">
@@ -5724,19 +5724,19 @@
         <v>148591</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>125566</v>
+        <v>125538</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>175736</v>
+        <v>177162</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04468713214329104</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03776269705151265</v>
+        <v>0.03775429351506004</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05285072299189401</v>
+        <v>0.05327937469966444</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>129</v>
@@ -5745,19 +5745,19 @@
         <v>135610</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>114556</v>
+        <v>112611</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>162169</v>
+        <v>157992</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03962041449100424</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03346909100732359</v>
+        <v>0.03290076854158313</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04737983485983337</v>
+        <v>0.04615963352601246</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>270</v>
@@ -5766,19 +5766,19 @@
         <v>284201</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>250805</v>
+        <v>247419</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>321652</v>
+        <v>315586</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04211713488348757</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03716790548166418</v>
+        <v>0.03666622294239689</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04766711070696511</v>
+        <v>0.04676819509942085</v>
       </c>
     </row>
     <row r="36">
@@ -5795,19 +5795,19 @@
         <v>439225</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>402572</v>
+        <v>399234</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>482809</v>
+        <v>478188</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.132092091745628</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1210689805132056</v>
+        <v>0.1200652393828089</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1451994454298374</v>
+        <v>0.1438096630147774</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>346</v>
@@ -5816,19 +5816,19 @@
         <v>368528</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>331412</v>
+        <v>330633</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>405042</v>
+        <v>406504</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1076706376138693</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.09682672766891907</v>
+        <v>0.09659916790455152</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1183388372297431</v>
+        <v>0.1187658490695605</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>771</v>
@@ -5837,19 +5837,19 @@
         <v>807753</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>756190</v>
+        <v>758310</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>862394</v>
+        <v>865807</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1197047683330615</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1120633325160444</v>
+        <v>0.1123775110653705</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1278022257841923</v>
+        <v>0.1283079472821085</v>
       </c>
     </row>
     <row r="37">
@@ -5866,19 +5866,19 @@
         <v>2670393</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2616561</v>
+        <v>2622354</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2714084</v>
+        <v>2723318</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.8030908482565939</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.7869014543618136</v>
+        <v>0.7886436453229695</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8162304397453759</v>
+        <v>0.8190076398978391</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2641</v>
@@ -5887,19 +5887,19 @@
         <v>2863416</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2819337</v>
+        <v>2819141</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2908141</v>
+        <v>2906966</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.8365869997944038</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8237088335616911</v>
+        <v>0.8236515691400029</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8496540524785378</v>
+        <v>0.849310840693965</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>5124</v>
@@ -5908,19 +5908,19 @@
         <v>5533808</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>5468479</v>
+        <v>5464383</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>5591891</v>
+        <v>5596017</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.8200811412971545</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8103996993079724</v>
+        <v>0.8097927090907266</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.8286887049910584</v>
+        <v>0.8293001104367084</v>
       </c>
     </row>
     <row r="38">
@@ -6257,16 +6257,16 @@
         <v>1107</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11526</v>
+        <v>11771</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009490402981049615</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002620127717906795</v>
+        <v>0.002622022096123494</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02729275484106755</v>
+        <v>0.02787156136550473</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -6275,19 +6275,19 @@
         <v>6756</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2912</v>
+        <v>2833</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13434</v>
+        <v>12657</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01990665804700626</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008580795406432763</v>
+        <v>0.008348301335613794</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03958228950468492</v>
+        <v>0.03729489123159656</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -6296,19 +6296,19 @@
         <v>10764</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5688</v>
+        <v>5198</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18818</v>
+        <v>20239</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01413144532080963</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007467097828111945</v>
+        <v>0.0068234856939911</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02470429633714152</v>
+        <v>0.02657070869762387</v>
       </c>
     </row>
     <row r="5">
@@ -6325,19 +6325,19 @@
         <v>15907</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8645</v>
+        <v>8843</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26047</v>
+        <v>27104</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03766508428812825</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02046923504061664</v>
+        <v>0.02093888594426437</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06167558769780579</v>
+        <v>0.06417740176758659</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -6346,19 +6346,19 @@
         <v>16649</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10636</v>
+        <v>9803</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26381</v>
+        <v>25578</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04905554415713116</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03133922813935143</v>
+        <v>0.02888568742916737</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07772999893622103</v>
+        <v>0.07536628804562445</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>30</v>
@@ -6367,19 +6367,19 @@
         <v>32556</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23007</v>
+        <v>22307</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>46472</v>
+        <v>46150</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0427401910502652</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03020451160705055</v>
+        <v>0.02928481071144564</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.061010102652035</v>
+        <v>0.06058738057146013</v>
       </c>
     </row>
     <row r="6">
@@ -6396,19 +6396,19 @@
         <v>70577</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55040</v>
+        <v>56716</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>85800</v>
+        <v>86695</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1671139765680286</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1303256711246969</v>
+        <v>0.1342929238516615</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2031594486840035</v>
+        <v>0.2052784960568951</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>47</v>
@@ -6417,19 +6417,19 @@
         <v>48682</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>37537</v>
+        <v>36604</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>63133</v>
+        <v>64261</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1434401636224831</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1106019763778305</v>
+        <v>0.1078532302263855</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1860214832589064</v>
+        <v>0.1893427373136869</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>113</v>
@@ -6438,19 +6438,19 @@
         <v>119259</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>99957</v>
+        <v>101005</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>140593</v>
+        <v>140329</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1565659276264348</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1312268417480108</v>
+        <v>0.1326016157845623</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1845736945230783</v>
+        <v>0.1842272479789638</v>
       </c>
     </row>
     <row r="7">
@@ -6467,19 +6467,19 @@
         <v>331835</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>315211</v>
+        <v>311480</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>349430</v>
+        <v>347247</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7857305361627935</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7463662022001234</v>
+        <v>0.7375323278099086</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8273920973256711</v>
+        <v>0.8222231018227438</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>255</v>
@@ -6488,19 +6488,19 @@
         <v>267301</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>251373</v>
+        <v>250999</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>282459</v>
+        <v>281642</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7875976341733795</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.740664797822904</v>
+        <v>0.7395642341069362</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8322588517006174</v>
+        <v>0.829853972686742</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>563</v>
@@ -6509,19 +6509,19 @@
         <v>599136</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>572573</v>
+        <v>576860</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>619734</v>
+        <v>622870</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7865624360024904</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7516896630470347</v>
+        <v>0.7573168586429149</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8136038019225467</v>
+        <v>0.8177206235753527</v>
       </c>
     </row>
     <row r="8">
@@ -6613,19 +6613,19 @@
         <v>3978</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>994</v>
+        <v>1018</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9986</v>
+        <v>10104</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01081515208731619</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002703486574489019</v>
+        <v>0.002768866099796719</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02714951132996579</v>
+        <v>0.02747242799174759</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -6634,19 +6634,19 @@
         <v>7767</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3383</v>
+        <v>3031</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16032</v>
+        <v>15144</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02137473217639493</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.009309157259212152</v>
+        <v>0.00834272601424888</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04412156457688436</v>
+        <v>0.04167908422210671</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -6655,19 +6655,19 @@
         <v>11744</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5894</v>
+        <v>6737</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>19581</v>
+        <v>22255</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01606284073203652</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.008061750116819432</v>
+        <v>0.009213714598809198</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0267816846196567</v>
+        <v>0.03043826109662228</v>
       </c>
     </row>
     <row r="10">
@@ -6684,19 +6684,19 @@
         <v>19464</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11491</v>
+        <v>11685</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29279</v>
+        <v>29704</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05291946037919439</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03124192708540829</v>
+        <v>0.03176887743229333</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07960627978415226</v>
+        <v>0.08076184789164041</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -6705,19 +6705,19 @@
         <v>26244</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18267</v>
+        <v>18230</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38016</v>
+        <v>37427</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07222835144332437</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05027366527098352</v>
+        <v>0.05017026685796193</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.104625782138784</v>
+        <v>0.1030058374244756</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -6726,19 +6726,19 @@
         <v>45708</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33913</v>
+        <v>33236</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61331</v>
+        <v>60862</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06251520637710338</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04638333669889406</v>
+        <v>0.04545735543778745</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08388233860922494</v>
+        <v>0.08324190010588325</v>
       </c>
     </row>
     <row r="11">
@@ -6755,19 +6755,19 @@
         <v>67033</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>53160</v>
+        <v>52772</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>82664</v>
+        <v>82815</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1822546988342419</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1445356736888293</v>
+        <v>0.1434819418128978</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2247541403184567</v>
+        <v>0.2251632167006317</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>52</v>
@@ -6776,19 +6776,19 @@
         <v>53948</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>41657</v>
+        <v>42426</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>69042</v>
+        <v>69659</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1484739568270302</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1146467136147174</v>
+        <v>0.1167634105881382</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1900127591884744</v>
+        <v>0.1917126779588322</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>115</v>
@@ -6797,19 +6797,19 @@
         <v>120981</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>101403</v>
+        <v>101409</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>141754</v>
+        <v>142957</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1654670221703929</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1386893295353262</v>
+        <v>0.138698381595326</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.193877268777544</v>
+        <v>0.1955232762874177</v>
       </c>
     </row>
     <row r="12">
@@ -6826,19 +6826,19 @@
         <v>277324</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>259925</v>
+        <v>261116</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>293039</v>
+        <v>293673</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7540106886992475</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.706705352828028</v>
+        <v>0.7099446114554132</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7967382405192583</v>
+        <v>0.7984635533384682</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>259</v>
@@ -6847,19 +6847,19 @@
         <v>275394</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>257064</v>
+        <v>258492</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>290580</v>
+        <v>291327</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7579229595532505</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7074775326913332</v>
+        <v>0.7114079194379694</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.799719129428312</v>
+        <v>0.8017735182746309</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>520</v>
@@ -6868,19 +6868,19 @@
         <v>552717</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>529387</v>
+        <v>528241</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>577117</v>
+        <v>576938</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7559549307204672</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7240455831235293</v>
+        <v>0.7224787290045263</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7893271726962195</v>
+        <v>0.7890812363192089</v>
       </c>
     </row>
     <row r="13">
@@ -6972,19 +6972,19 @@
         <v>21203</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12833</v>
+        <v>13022</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31807</v>
+        <v>32773</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04163097667496862</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0251976042514439</v>
+        <v>0.02556941608108323</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06245249350923513</v>
+        <v>0.06434939624078523</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -6993,19 +6993,19 @@
         <v>3676</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1035</v>
+        <v>1045</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11414</v>
+        <v>10429</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02326413167742587</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0065490125876055</v>
+        <v>0.006612404148659057</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07222563059713724</v>
+        <v>0.06599690058233346</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -7014,19 +7014,19 @@
         <v>24879</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15525</v>
+        <v>15955</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>35805</v>
+        <v>36835</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03728161036913555</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0232646298087646</v>
+        <v>0.02390928977045784</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05365439200849545</v>
+        <v>0.05519863130536998</v>
       </c>
     </row>
     <row r="15">
@@ -7043,19 +7043,19 @@
         <v>32993</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>22996</v>
+        <v>23286</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>44739</v>
+        <v>47048</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0647818417763415</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04515331256843565</v>
+        <v>0.04572144476572105</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08784497233236765</v>
+        <v>0.09237884791125532</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>6</v>
@@ -7064,19 +7064,19 @@
         <v>6316</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2850</v>
+        <v>2182</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>13047</v>
+        <v>13060</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03996686092191491</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01803355781719767</v>
+        <v>0.0138047139169344</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08256343777061506</v>
+        <v>0.08264346505930775</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>38</v>
@@ -7085,19 +7085,19 @@
         <v>39309</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>28175</v>
+        <v>28783</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>53176</v>
+        <v>53830</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05890552270125946</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0422210084927012</v>
+        <v>0.04313129983636492</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07968501150467026</v>
+        <v>0.08066508079510444</v>
       </c>
     </row>
     <row r="16">
@@ -7114,19 +7114,19 @@
         <v>94231</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>77155</v>
+        <v>77266</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>113814</v>
+        <v>115812</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1850222051004823</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1514930476219231</v>
+        <v>0.151710733416707</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2234731475676207</v>
+        <v>0.2273956078557904</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -7135,19 +7135,19 @@
         <v>26718</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17845</v>
+        <v>17939</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37733</v>
+        <v>36376</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1690721588244319</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1129255513473705</v>
+        <v>0.1135214584732452</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2387788165114469</v>
+        <v>0.2301896620346922</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>112</v>
@@ -7156,19 +7156,19 @@
         <v>120949</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>102246</v>
+        <v>101094</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>142067</v>
+        <v>142193</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1812451495496344</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1532175457723108</v>
+        <v>0.1514915305717795</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.212890279149478</v>
+        <v>0.2130799856458205</v>
       </c>
     </row>
     <row r="17">
@@ -7185,19 +7185,19 @@
         <v>360871</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>339844</v>
+        <v>339670</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>380292</v>
+        <v>380608</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7085649764482076</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6672793553297227</v>
+        <v>0.666937269711786</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7466977064125075</v>
+        <v>0.7473186021159874</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>111</v>
@@ -7206,19 +7206,19 @@
         <v>121316</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>108600</v>
+        <v>109592</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>131171</v>
+        <v>131706</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7676968485762273</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6872262742182029</v>
+        <v>0.6935076097020104</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8300610224842286</v>
+        <v>0.8334449864279072</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>463</v>
@@ -7227,19 +7227,19 @@
         <v>482187</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>456895</v>
+        <v>457764</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>504872</v>
+        <v>506377</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7225677173799706</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6846681400177654</v>
+        <v>0.6859697493147182</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7565616675175111</v>
+        <v>0.758816824907506</v>
       </c>
     </row>
     <row r="18">
@@ -7331,19 +7331,19 @@
         <v>34158</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23612</v>
+        <v>23176</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48235</v>
+        <v>49617</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03041513840003451</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02102416661362013</v>
+        <v>0.02063598934257487</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04294933177053663</v>
+        <v>0.04417946314292958</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -7352,19 +7352,19 @@
         <v>29321</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19365</v>
+        <v>20351</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41094</v>
+        <v>40902</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03640027591244256</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02403970500236432</v>
+        <v>0.02526441878739661</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05101504291141796</v>
+        <v>0.0507774214953396</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>59</v>
@@ -7373,19 +7373,19 @@
         <v>63480</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48727</v>
+        <v>47595</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>82233</v>
+        <v>79895</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03291496680306505</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02526564192315402</v>
+        <v>0.02467878499117249</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04263851922300309</v>
+        <v>0.04142671754538617</v>
       </c>
     </row>
     <row r="20">
@@ -7402,19 +7402,19 @@
         <v>96256</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>78162</v>
+        <v>76451</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>116740</v>
+        <v>117212</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08570717508243866</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06959621163997988</v>
+        <v>0.06807304961776174</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1039468313475015</v>
+        <v>0.104367396815166</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>58</v>
@@ -7423,19 +7423,19 @@
         <v>59517</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>46712</v>
+        <v>45910</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>77618</v>
+        <v>75452</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07388593601343464</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05798910138550085</v>
+        <v>0.05699376804194485</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09635758946353812</v>
+        <v>0.09366887190345974</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>146</v>
@@ -7444,19 +7444,19 @@
         <v>155772</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>133391</v>
+        <v>132377</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>182712</v>
+        <v>179450</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08076976652291151</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.06916488572394132</v>
+        <v>0.06863900449566239</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0947380434398017</v>
+        <v>0.09304709823188756</v>
       </c>
     </row>
     <row r="21">
@@ -7473,19 +7473,19 @@
         <v>223559</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>197989</v>
+        <v>195724</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>253364</v>
+        <v>255110</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1990593412767814</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1762916011828055</v>
+        <v>0.174274666448075</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.225598712459202</v>
+        <v>0.2271531383879911</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>167</v>
@@ -7494,19 +7494,19 @@
         <v>174340</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>150596</v>
+        <v>150475</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>198541</v>
+        <v>199158</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2164312751148992</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1869537858562774</v>
+        <v>0.1868036440215055</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2464752287392222</v>
+        <v>0.2472411832521979</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>377</v>
@@ -7515,19 +7515,19 @@
         <v>397899</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>362412</v>
+        <v>359767</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>434730</v>
+        <v>434155</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2063151233760338</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.187914802291376</v>
+        <v>0.1865430357004319</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2254124378922908</v>
+        <v>0.2251142978012401</v>
       </c>
     </row>
     <row r="22">
@@ -7544,19 +7544,19 @@
         <v>769102</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>735874</v>
+        <v>733951</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>799068</v>
+        <v>798146</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6848183452407454</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6552318204153003</v>
+        <v>0.6535190180187482</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7115001280790222</v>
+        <v>0.7106787915597365</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>524</v>
@@ -7565,19 +7565,19 @@
         <v>542345</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>516112</v>
+        <v>515122</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>568169</v>
+        <v>568549</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6732825129592236</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6407165299048725</v>
+        <v>0.6394881275455885</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7053419784661947</v>
+        <v>0.7058128708234729</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1275</v>
@@ -7586,19 +7586,19 @@
         <v>1311447</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1270416</v>
+        <v>1267573</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1350594</v>
+        <v>1352001</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6800001432979896</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6587249747758883</v>
+        <v>0.6572507752151699</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7002984586820949</v>
+        <v>0.7010281007804584</v>
       </c>
     </row>
     <row r="23">
@@ -7690,19 +7690,19 @@
         <v>15951</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8799</v>
+        <v>9574</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25346</v>
+        <v>25456</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02608771036863735</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01439025147444567</v>
+        <v>0.01565822989816988</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04145317966521569</v>
+        <v>0.04163278375968608</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -7711,19 +7711,19 @@
         <v>12458</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7083</v>
+        <v>6511</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>21100</v>
+        <v>20966</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01727347832574384</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009820522352659069</v>
+        <v>0.009027264074552148</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02925615064119819</v>
+        <v>0.0290698566190912</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>27</v>
@@ -7732,19 +7732,19 @@
         <v>28409</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>18725</v>
+        <v>18928</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>41143</v>
+        <v>40221</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02131753626159739</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01405092697064378</v>
+        <v>0.01420357503409856</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03087286955758002</v>
+        <v>0.03018131812534781</v>
       </c>
     </row>
     <row r="25">
@@ -7761,19 +7761,19 @@
         <v>31755</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21266</v>
+        <v>22488</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44380</v>
+        <v>43339</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05193516928325988</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03478106509721089</v>
+        <v>0.03677966350000384</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07258281983588112</v>
+        <v>0.07088075601183451</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>34</v>
@@ -7782,19 +7782,19 @@
         <v>35508</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>24580</v>
+        <v>24710</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>48462</v>
+        <v>47777</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04923359008247696</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03408128864490735</v>
+        <v>0.03426128802045136</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06719515448857334</v>
+        <v>0.06624426816850566</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>65</v>
@@ -7803,19 +7803,19 @@
         <v>67263</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>52276</v>
+        <v>52195</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>83972</v>
+        <v>84079</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05047310167612415</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03922678488694264</v>
+        <v>0.0391665011102973</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06301099756831936</v>
+        <v>0.06309151702634726</v>
       </c>
     </row>
     <row r="26">
@@ -7832,19 +7832,19 @@
         <v>101251</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>82475</v>
+        <v>82052</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>120044</v>
+        <v>122057</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1655952453294154</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1348877037863156</v>
+        <v>0.134195547129123</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1963311592634346</v>
+        <v>0.1996243476715143</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>97</v>
@@ -7853,19 +7853,19 @@
         <v>100440</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>83350</v>
+        <v>84048</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>119933</v>
+        <v>119716</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1392637770576309</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1155685594125486</v>
+        <v>0.1165360687866294</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1662924496738021</v>
+        <v>0.1659919044868462</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>189</v>
@@ -7874,19 +7874,19 @@
         <v>201690</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>175432</v>
+        <v>173456</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>228356</v>
+        <v>230160</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1513449184105002</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1316409210759288</v>
+        <v>0.1301587545712203</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1713546275488326</v>
+        <v>0.1727083516355504</v>
       </c>
     </row>
     <row r="27">
@@ -7903,19 +7903,19 @@
         <v>462478</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>441601</v>
+        <v>438821</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>484486</v>
+        <v>482803</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7563818750186874</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7222374469040321</v>
+        <v>0.7176919547466702</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7923769204323645</v>
+        <v>0.7896246276196246</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>540</v>
@@ -7924,19 +7924,19 @@
         <v>572812</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>550989</v>
+        <v>548548</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>593073</v>
+        <v>592294</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7942291545341482</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7639698156414445</v>
+        <v>0.7605861870927747</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.822321433644538</v>
+        <v>0.8212413186455771</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>990</v>
@@ -7945,19 +7945,19 @@
         <v>1035291</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1005982</v>
+        <v>1002624</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1068340</v>
+        <v>1066207</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7768644436517783</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7548714282400072</v>
+        <v>0.7523521976587808</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8016642595170093</v>
+        <v>0.8000638048745785</v>
       </c>
     </row>
     <row r="28">
@@ -8049,19 +8049,19 @@
         <v>5285</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2032</v>
+        <v>2041</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11522</v>
+        <v>11664</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01880550360995961</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.007229286688379893</v>
+        <v>0.00726330741492608</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04099604299284315</v>
+        <v>0.04150217962362831</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>21</v>
@@ -8070,19 +8070,19 @@
         <v>22998</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14537</v>
+        <v>14437</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>33987</v>
+        <v>33760</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02194191437409027</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01386916112661644</v>
+        <v>0.0137737256280163</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03242650558405315</v>
+        <v>0.03221014181139538</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>26</v>
@@ -8091,19 +8091,19 @@
         <v>28283</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>18964</v>
+        <v>19073</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>41212</v>
+        <v>41331</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0212787371202765</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01426743608762248</v>
+        <v>0.01434974191900524</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03100545356313182</v>
+        <v>0.03109540654181926</v>
       </c>
     </row>
     <row r="30">
@@ -8120,19 +8120,19 @@
         <v>25936</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16477</v>
+        <v>17004</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>37959</v>
+        <v>37631</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09228409335125076</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05862793815953689</v>
+        <v>0.06050107179121173</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1350623214427573</v>
+        <v>0.1338951318823282</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>54</v>
@@ -8141,19 +8141,19 @@
         <v>58035</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>45036</v>
+        <v>44053</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>75577</v>
+        <v>74524</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05537041939586916</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0429679186904865</v>
+        <v>0.04203047381464536</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07210692356433232</v>
+        <v>0.07110239017220184</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>78</v>
@@ -8162,19 +8162,19 @@
         <v>83972</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>67532</v>
+        <v>65459</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>104131</v>
+        <v>103690</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06317561800119027</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05080778842809687</v>
+        <v>0.04924804345928499</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07834232032160199</v>
+        <v>0.07801099028712209</v>
       </c>
     </row>
     <row r="31">
@@ -8191,19 +8191,19 @@
         <v>47546</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>35466</v>
+        <v>35692</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>62447</v>
+        <v>60576</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1691755463765551</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1261913594862531</v>
+        <v>0.1269966323087392</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2221929750394237</v>
+        <v>0.2155386078612831</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>127</v>
@@ -8212,19 +8212,19 @@
         <v>134065</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>112773</v>
+        <v>113958</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>156548</v>
+        <v>156999</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1279084408408952</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1075941742707986</v>
+        <v>0.108725247769191</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1493596019170096</v>
+        <v>0.1497901488917124</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>173</v>
@@ -8233,19 +8233,19 @@
         <v>181611</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>155397</v>
+        <v>156810</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>207305</v>
+        <v>209199</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1366341492318264</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1169119883181972</v>
+        <v>0.117975549128825</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1559652546989501</v>
+        <v>0.157389792281017</v>
       </c>
     </row>
     <row r="32">
@@ -8262,19 +8262,19 @@
         <v>202279</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>185738</v>
+        <v>186689</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>216715</v>
+        <v>218577</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7197348566622346</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6608770231941596</v>
+        <v>0.664263794030798</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7710985425442016</v>
+        <v>0.7777238729242371</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>760</v>
@@ -8283,19 +8283,19 @@
         <v>833031</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>808251</v>
+        <v>806533</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>858900</v>
+        <v>860750</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7947792253891454</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7711368269486953</v>
+        <v>0.7694976166614356</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8194599594397166</v>
+        <v>0.8212251854497102</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>951</v>
@@ -8304,19 +8304,19 @@
         <v>1035310</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1001641</v>
+        <v>1004529</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1067038</v>
+        <v>1066748</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7789114956467068</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7535802030517735</v>
+        <v>0.7557535237183409</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8027818889359664</v>
+        <v>0.8025631262998495</v>
       </c>
     </row>
     <row r="33">
@@ -8408,19 +8408,19 @@
         <v>84583</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>67113</v>
+        <v>65667</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>105360</v>
+        <v>104770</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02551540545139758</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02024544265441926</v>
+        <v>0.01980909397550231</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03178306882538057</v>
+        <v>0.03160511521129754</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>79</v>
@@ -8429,19 +8429,19 @@
         <v>82976</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>66323</v>
+        <v>66454</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>100819</v>
+        <v>102256</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02415160489360825</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0193044094057319</v>
+        <v>0.01934244927453106</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02934496990492026</v>
+        <v>0.02976326803128581</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>155</v>
@@ -8450,19 +8450,19 @@
         <v>167559</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>143445</v>
+        <v>143603</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>196228</v>
+        <v>196544</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02482131733871074</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02124922221537389</v>
+        <v>0.02127251037473875</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0290680946798207</v>
+        <v>0.02911490896234883</v>
       </c>
     </row>
     <row r="35">
@@ -8479,19 +8479,19 @@
         <v>222311</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>193094</v>
+        <v>192408</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>255456</v>
+        <v>253047</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.06706244266031376</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05824903795497054</v>
+        <v>0.058041873100578</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0770610173369798</v>
+        <v>0.07633425287209619</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>194</v>
@@ -8500,19 +8500,19 @@
         <v>202269</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>175429</v>
+        <v>174853</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>229587</v>
+        <v>231502</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05887390528086196</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0510614338958573</v>
+        <v>0.05089389218129479</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06682510420653026</v>
+        <v>0.06738252075700071</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>400</v>
@@ -8521,19 +8521,19 @@
         <v>424580</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>385157</v>
+        <v>385442</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>467364</v>
+        <v>467535</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06289499572468395</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05705508122557149</v>
+        <v>0.05709728536701322</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06923274282281151</v>
+        <v>0.06925808091822479</v>
       </c>
     </row>
     <row r="36">
@@ -8550,19 +8550,19 @@
         <v>604197</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>558536</v>
+        <v>553540</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>648789</v>
+        <v>649962</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1822625440461235</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.168488496748643</v>
+        <v>0.16698152590886</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1957143377728102</v>
+        <v>0.1960681900900315</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>515</v>
@@ -8571,19 +8571,19 @@
         <v>538192</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>493267</v>
+        <v>493092</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>580908</v>
+        <v>582569</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1566500114785282</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1435736867745993</v>
+        <v>0.1435228190344834</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1690831869213638</v>
+        <v>0.1695665341249661</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1079</v>
@@ -8592,19 +8592,19 @@
         <v>1142389</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1076236</v>
+        <v>1080640</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1202054</v>
+        <v>1202310</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1692273870435564</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1594278435961088</v>
+        <v>0.1600801586092276</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1780658402326731</v>
+        <v>0.1781037273909588</v>
       </c>
     </row>
     <row r="37">
@@ -8621,19 +8621,19 @@
         <v>2403890</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2353810</v>
+        <v>2345256</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2455823</v>
+        <v>2452246</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.7251596078421652</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.7100525005547967</v>
+        <v>0.7074721792190661</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7408260347592691</v>
+        <v>0.7397469801227026</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2449</v>
@@ -8642,19 +8642,19 @@
         <v>2612198</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2560941</v>
+        <v>2560402</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2661489</v>
+        <v>2666479</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.7603244783470016</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.7454053392163735</v>
+        <v>0.7452483057725399</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.7746714350326744</v>
+        <v>0.7761237714588486</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4762</v>
@@ -8663,19 +8663,19 @@
         <v>5016088</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4946749</v>
+        <v>4947295</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>5094448</v>
+        <v>5089099</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.7430562998930489</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.7327847166481245</v>
+        <v>0.732865645618486</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7546640546353391</v>
+        <v>0.7538716146656652</v>
       </c>
     </row>
     <row r="38">
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5439</v>
+        <v>7009</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00197054700189126</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009877243861487004</v>
+        <v>0.01272985602049567</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -9030,19 +9030,19 @@
         <v>3730</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1599</v>
+        <v>1272</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7784</v>
+        <v>8050</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.007701804035836876</v>
+        <v>0.007701804035836878</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003301794882450478</v>
+        <v>0.002626178724037853</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01607309426071788</v>
+        <v>0.01662169251485197</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -9051,19 +9051,19 @@
         <v>4815</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2223</v>
+        <v>1766</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10471</v>
+        <v>9782</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004652515104395311</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002148435236388566</v>
+        <v>0.001706267130776596</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01011799176607349</v>
+        <v>0.009452298625873179</v>
       </c>
     </row>
     <row r="5">
@@ -9080,19 +9080,19 @@
         <v>21937</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13157</v>
+        <v>13407</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>35321</v>
+        <v>35133</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03984099507169632</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02389478398645539</v>
+        <v>0.02434850298323436</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06414797136833843</v>
+        <v>0.06380659710246231</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -9101,19 +9101,19 @@
         <v>14342</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9019</v>
+        <v>8513</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23187</v>
+        <v>21895</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02961384908396586</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01862401146560254</v>
+        <v>0.01757906972243797</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04787829378670674</v>
+        <v>0.0452114558728056</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>41</v>
@@ -9122,19 +9122,19 @@
         <v>36279</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>25271</v>
+        <v>26068</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49507</v>
+        <v>51991</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03505515504458061</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02441899066123623</v>
+        <v>0.02518867764640894</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04783755659023782</v>
+        <v>0.05023758062500428</v>
       </c>
     </row>
     <row r="6">
@@ -9151,19 +9151,19 @@
         <v>51592</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39289</v>
+        <v>38181</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>66166</v>
+        <v>65108</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09369899628680005</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07135520959142426</v>
+        <v>0.06934188874828959</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1201669853903383</v>
+        <v>0.1182459886769098</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>60</v>
@@ -9172,19 +9172,19 @@
         <v>44296</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>34309</v>
+        <v>33376</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>58822</v>
+        <v>57880</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09146544685596651</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0708437326198577</v>
+        <v>0.06891811870112022</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1214593075395013</v>
+        <v>0.119515396364687</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>113</v>
@@ -9193,19 +9193,19 @@
         <v>95888</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>78730</v>
+        <v>80908</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>113779</v>
+        <v>119736</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09265379655253901</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07607393768224371</v>
+        <v>0.07817881432782889</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1099409213702831</v>
+        <v>0.1156970866818528</v>
       </c>
     </row>
     <row r="7">
@@ -9222,19 +9222,19 @@
         <v>476003</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>458201</v>
+        <v>457809</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>491978</v>
+        <v>491858</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8644894616396125</v>
+        <v>0.8644894616396124</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8321582732846093</v>
+        <v>0.8314461362693337</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8935023283344923</v>
+        <v>0.8932827009997109</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>596</v>
@@ -9243,19 +9243,19 @@
         <v>421923</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>406013</v>
+        <v>406356</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>434084</v>
+        <v>434810</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.8712189000242306</v>
+        <v>0.8712189000242309</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8383677079984807</v>
+        <v>0.8390748006404445</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8963310408402924</v>
+        <v>0.8978298652787989</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1076</v>
@@ -9264,19 +9264,19 @@
         <v>897926</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>876001</v>
+        <v>871586</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>916928</v>
+        <v>916669</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8676385332984849</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8464527403291703</v>
+        <v>0.8421871411289948</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8859999460352435</v>
+        <v>0.8857491648876167</v>
       </c>
     </row>
     <row r="8">
@@ -9368,19 +9368,19 @@
         <v>3820</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8528</v>
+        <v>8670</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.007922004221514756</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002484486413163508</v>
+        <v>0.002471100208961229</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.017685586111301</v>
+        <v>0.01797979330294278</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -9389,19 +9389,19 @@
         <v>2937</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>734</v>
+        <v>853</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7082</v>
+        <v>7108</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.006952816137965234</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001738096087097185</v>
+        <v>0.002019434921799775</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01676479752182725</v>
+        <v>0.01682687554041793</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -9410,19 +9410,19 @@
         <v>6757</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3162</v>
+        <v>3141</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12384</v>
+        <v>12531</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.007469430464633958</v>
+        <v>0.007469430464633956</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.003495112022182067</v>
+        <v>0.003472187190733648</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01368985372724707</v>
+        <v>0.01385166792911082</v>
       </c>
     </row>
     <row r="10">
@@ -9439,19 +9439,19 @@
         <v>19124</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11322</v>
+        <v>11772</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31922</v>
+        <v>31872</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03965987526940112</v>
+        <v>0.03965987526940113</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02347976161619058</v>
+        <v>0.02441254726837708</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06620063372237071</v>
+        <v>0.06609646685642502</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -9460,19 +9460,19 @@
         <v>20258</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13662</v>
+        <v>13338</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29892</v>
+        <v>29967</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04795599668688438</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03234184919119503</v>
+        <v>0.03157476102918998</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07076160279497409</v>
+        <v>0.07093881905016255</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>45</v>
@@ -9481,19 +9481,19 @@
         <v>39382</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28697</v>
+        <v>29172</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54546</v>
+        <v>54048</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04353384658743355</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03172181001615699</v>
+        <v>0.03224696511518082</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06029555507350223</v>
+        <v>0.05974477518819592</v>
       </c>
     </row>
     <row r="11">
@@ -9510,19 +9510,19 @@
         <v>45952</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>34172</v>
+        <v>34416</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>61733</v>
+        <v>60243</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.09529591196028006</v>
+        <v>0.09529591196028007</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07086476410663958</v>
+        <v>0.07137102666476544</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1280209331511326</v>
+        <v>0.1249321929205109</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>57</v>
@@ -9531,19 +9531,19 @@
         <v>37100</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>28250</v>
+        <v>28971</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>47462</v>
+        <v>48418</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08782482488456332</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0668743092774922</v>
+        <v>0.06858086388363895</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1123550548307534</v>
+        <v>0.1146165978816545</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>101</v>
@@ -9552,19 +9552,19 @@
         <v>83052</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>67670</v>
+        <v>68070</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>101101</v>
+        <v>103700</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.09180720011659184</v>
+        <v>0.09180720011659185</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07480303854129824</v>
+        <v>0.07524532541875682</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1117577224744273</v>
+        <v>0.114630750241271</v>
       </c>
     </row>
     <row r="12">
@@ -9581,19 +9581,19 @@
         <v>413311</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>394065</v>
+        <v>395962</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>428242</v>
+        <v>428374</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8571222085488041</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8172099777815462</v>
+        <v>0.8211444288763862</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8880855449242989</v>
+        <v>0.8883589832176711</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>500</v>
@@ -9602,19 +9602,19 @@
         <v>362137</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>349169</v>
+        <v>347496</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>373283</v>
+        <v>373446</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8572663622905871</v>
+        <v>0.8572663622905869</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8265693498983437</v>
+        <v>0.8226088862328955</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8836524965123556</v>
+        <v>0.8840389207564581</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>914</v>
@@ -9623,19 +9623,19 @@
         <v>775448</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>752998</v>
+        <v>754560</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>794638</v>
+        <v>793982</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8571895228313406</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8323731014516652</v>
+        <v>0.8340995176063495</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8784026865890299</v>
+        <v>0.8776777193965739</v>
       </c>
     </row>
     <row r="13">
@@ -9727,19 +9727,19 @@
         <v>6104</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2912</v>
+        <v>2652</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11592</v>
+        <v>11641</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0129716947408608</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006189643828632737</v>
+        <v>0.005635516199276116</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02463648619023076</v>
+        <v>0.02473997504621743</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -9751,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3723</v>
+        <v>3151</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003385267170963044</v>
@@ -9760,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02000517795150242</v>
+        <v>0.01693022407972621</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -9769,19 +9769,19 @@
         <v>6734</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3112</v>
+        <v>3125</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13359</v>
+        <v>11975</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0102547695141781</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004740016237899914</v>
+        <v>0.004758588143492401</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02034479026054815</v>
+        <v>0.01823735258957847</v>
       </c>
     </row>
     <row r="15">
@@ -9798,19 +9798,19 @@
         <v>20801</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13181</v>
+        <v>12758</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>31633</v>
+        <v>31510</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04420740171323352</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02801255835909319</v>
+        <v>0.02711339624991532</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06722908968358597</v>
+        <v>0.06696751090749609</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>7</v>
@@ -9819,19 +9819,19 @@
         <v>4241</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1770</v>
+        <v>1897</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7895</v>
+        <v>8723</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02278908444612002</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.009509022580061876</v>
+        <v>0.0101957796572668</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04242186969283556</v>
+        <v>0.04687221528065855</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>26</v>
@@ -9840,19 +9840,19 @@
         <v>25042</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>16867</v>
+        <v>17007</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>36786</v>
+        <v>36726</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.03813715645536057</v>
+        <v>0.03813715645536058</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02568736611835962</v>
+        <v>0.02590031195575829</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05602263955906284</v>
+        <v>0.05593110212967319</v>
       </c>
     </row>
     <row r="16">
@@ -9869,19 +9869,19 @@
         <v>43590</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32999</v>
+        <v>32570</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58013</v>
+        <v>58126</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0926400367748334</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07013079174935333</v>
+        <v>0.06921938418662077</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.123291723771991</v>
+        <v>0.1235327203226244</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>23</v>
@@ -9890,19 +9890,19 @@
         <v>12876</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8317</v>
+        <v>8061</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18939</v>
+        <v>18594</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06918851297431246</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04469315177364746</v>
+        <v>0.04331630907198578</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1017703342936365</v>
+        <v>0.09991495298628252</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -9911,19 +9911,19 @@
         <v>56466</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44640</v>
+        <v>43590</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>72952</v>
+        <v>71540</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08599355286273884</v>
+        <v>0.08599355286273885</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06798337950734112</v>
+        <v>0.06638480968456086</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1111005793363627</v>
+        <v>0.1089500221684947</v>
       </c>
     </row>
     <row r="17">
@@ -9940,19 +9940,19 @@
         <v>400036</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>382596</v>
+        <v>383243</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>414616</v>
+        <v>415174</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8501808667710723</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8131163093346305</v>
+        <v>0.8144900092018875</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8811664649505565</v>
+        <v>0.8823521573835167</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>256</v>
@@ -9961,19 +9961,19 @@
         <v>168351</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>161564</v>
+        <v>161283</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>173904</v>
+        <v>174003</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9046371354086046</v>
+        <v>0.9046371354086044</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8681676337119908</v>
+        <v>0.8666542088092027</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.934475439973435</v>
+        <v>0.935008721345455</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>673</v>
@@ -9982,19 +9982,19 @@
         <v>568388</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>550391</v>
+        <v>550245</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>584611</v>
+        <v>584534</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8656145211677224</v>
+        <v>0.8656145211677226</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8382071712333072</v>
+        <v>0.8379846746705476</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8903219929262353</v>
+        <v>0.8902050838264672</v>
       </c>
     </row>
     <row r="18">
@@ -10086,19 +10086,19 @@
         <v>16331</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9133</v>
+        <v>9118</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>29727</v>
+        <v>27748</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.01452010997839245</v>
+        <v>0.01452010997839246</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008120219637996718</v>
+        <v>0.008107021854319994</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02643026323647193</v>
+        <v>0.02467074130868391</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -10107,19 +10107,19 @@
         <v>10082</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5418</v>
+        <v>5509</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18954</v>
+        <v>17856</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01179690169686553</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006339502346656209</v>
+        <v>0.006445632556603924</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02217725003562107</v>
+        <v>0.02089287032441491</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -10128,19 +10128,19 @@
         <v>26413</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16788</v>
+        <v>17214</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41025</v>
+        <v>41391</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01334428043874894</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008481603306563027</v>
+        <v>0.008696756408202395</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02072631776124937</v>
+        <v>0.02091102920792518</v>
       </c>
     </row>
     <row r="20">
@@ -10157,19 +10157,19 @@
         <v>78843</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>58391</v>
+        <v>60255</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>100076</v>
+        <v>103283</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07010029493887791</v>
+        <v>0.07010029493887793</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05191608108815558</v>
+        <v>0.05357367823236494</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08897879526070838</v>
+        <v>0.09182982976277664</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>60</v>
@@ -10178,19 +10178,19 @@
         <v>46269</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35714</v>
+        <v>35296</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>60214</v>
+        <v>59600</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05413681837358254</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04178771846915124</v>
+        <v>0.04129859968258339</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07045392537371339</v>
+        <v>0.06973483499952286</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>123</v>
@@ -10199,19 +10199,19 @@
         <v>125112</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>101185</v>
+        <v>101456</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>150616</v>
+        <v>149420</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06320756938857348</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05111952367662401</v>
+        <v>0.05125624644637108</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07609264540756362</v>
+        <v>0.07548828289907303</v>
       </c>
     </row>
     <row r="21">
@@ -10228,19 +10228,19 @@
         <v>157132</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>133618</v>
+        <v>131150</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>186326</v>
+        <v>186231</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1397072612569</v>
+        <v>0.1397072612569001</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.11880105517932</v>
+        <v>0.1166063092291639</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.165663913534101</v>
+        <v>0.1655799610306404</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>178</v>
@@ -10249,19 +10249,19 @@
         <v>120091</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>103216</v>
+        <v>102871</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>138157</v>
+        <v>137375</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.140513878320047</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1207681343525097</v>
+        <v>0.1203653696811122</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1616512556127138</v>
+        <v>0.160736118304623</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>319</v>
@@ -10270,19 +10270,19 @@
         <v>277223</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>247007</v>
+        <v>248724</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>309752</v>
+        <v>311473</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1400555431626443</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1247900230724618</v>
+        <v>0.1256573060532682</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1564895711119863</v>
+        <v>0.1573587562540189</v>
       </c>
     </row>
     <row r="22">
@@ -10299,19 +10299,19 @@
         <v>872415</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>838801</v>
+        <v>838684</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>904841</v>
+        <v>904699</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7756723338258297</v>
+        <v>0.7756723338258298</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7457856452479904</v>
+        <v>0.7456815995721988</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8045024810372835</v>
+        <v>0.8043759500360566</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>972</v>
@@ -10320,19 +10320,19 @@
         <v>678217</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>655526</v>
+        <v>658219</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>696517</v>
+        <v>696997</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7935524016095048</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7670033261469298</v>
+        <v>0.7701534439530767</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.814965187931492</v>
+        <v>0.8155265696247591</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1865</v>
@@ -10341,19 +10341,19 @@
         <v>1550632</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1510146</v>
+        <v>1510911</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1584815</v>
+        <v>1587191</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7833926070100333</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7629390865195982</v>
+        <v>0.7633253527777073</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.800662092942493</v>
+        <v>0.8018626752384037</v>
       </c>
     </row>
     <row r="23">
@@ -10445,19 +10445,19 @@
         <v>7566</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3226</v>
+        <v>3432</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14576</v>
+        <v>15030</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01332173319898954</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.005679309789227257</v>
+        <v>0.006042915141581584</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02566425848033785</v>
+        <v>0.02646286436843889</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>9</v>
@@ -10466,19 +10466,19 @@
         <v>7426</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3302</v>
+        <v>3674</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13739</v>
+        <v>14468</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.008976968291996006</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.003991672732446443</v>
+        <v>0.00444191974786033</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01660897173253714</v>
+        <v>0.01748988715674496</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>17</v>
@@ -10487,19 +10487,19 @@
         <v>14992</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>9115</v>
+        <v>8792</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>24168</v>
+        <v>24161</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01074567320602141</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.006533034467820519</v>
+        <v>0.006301560715649771</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01732222702311735</v>
+        <v>0.01731726735433268</v>
       </c>
     </row>
     <row r="25">
@@ -10516,19 +10516,19 @@
         <v>33435</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23434</v>
+        <v>22915</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44828</v>
+        <v>45499</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.05886852955346108</v>
+        <v>0.05886852955346106</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04125901670031858</v>
+        <v>0.04034564443662905</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07892688730301214</v>
+        <v>0.08010930173841531</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>48</v>
@@ -10537,19 +10537,19 @@
         <v>30235</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23097</v>
+        <v>22525</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39857</v>
+        <v>40971</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03655014753297754</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02792087289700959</v>
+        <v>0.02723023464021538</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04818150384346555</v>
+        <v>0.04952890951611556</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>81</v>
@@ -10558,19 +10558,19 @@
         <v>63670</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>50705</v>
+        <v>51731</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>79503</v>
+        <v>79855</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04563570976654861</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03634322875646775</v>
+        <v>0.03707861847843174</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05698354131902266</v>
+        <v>0.05723582282313545</v>
       </c>
     </row>
     <row r="26">
@@ -10587,19 +10587,19 @@
         <v>59283</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>45038</v>
+        <v>45332</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>79374</v>
+        <v>77879</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1043778682940883</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07929646566746491</v>
+        <v>0.07981495975726141</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1397519050671653</v>
+        <v>0.1371192346806552</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>121</v>
@@ -10608,19 +10608,19 @@
         <v>78635</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>65453</v>
+        <v>65470</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>93383</v>
+        <v>94155</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09505972653786268</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07912413603013589</v>
+        <v>0.0791440082897671</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1128878310257281</v>
+        <v>0.1138204508315588</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>173</v>
@@ -10629,19 +10629,19 @@
         <v>137918</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>116611</v>
+        <v>117027</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>161618</v>
+        <v>161841</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.0988530372155688</v>
+        <v>0.09885303721556883</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08358123076132093</v>
+        <v>0.08387933788808946</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1158396171459849</v>
+        <v>0.1159998479980821</v>
       </c>
     </row>
     <row r="27">
@@ -10658,19 +10658,19 @@
         <v>467680</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>446439</v>
+        <v>447577</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>487109</v>
+        <v>486331</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8234318689534612</v>
+        <v>0.823431868953461</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7860331584048071</v>
+        <v>0.7880379041649778</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8576398479485858</v>
+        <v>0.8562713747978742</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1107</v>
@@ -10679,19 +10679,19 @@
         <v>710924</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>694105</v>
+        <v>692922</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>726991</v>
+        <v>727875</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8594131576371636</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8390809115160202</v>
+        <v>0.8376510556796583</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8788357968184056</v>
+        <v>0.8799052147977289</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1561</v>
@@ -10700,19 +10700,19 @@
         <v>1178603</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1149034</v>
+        <v>1150251</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1203930</v>
+        <v>1203675</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8447655798118611</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8235716665135735</v>
+        <v>0.8244441449195186</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8629184641423834</v>
+        <v>0.8627354154610081</v>
       </c>
     </row>
     <row r="28">
@@ -10817,19 +10817,19 @@
         <v>5535</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2085</v>
+        <v>2095</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11025</v>
+        <v>11307</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.006573087690500777</v>
+        <v>0.006573087690500778</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002476605608886761</v>
+        <v>0.002488461009616318</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01309298047899194</v>
+        <v>0.01342859626976984</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -10838,19 +10838,19 @@
         <v>5535</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2108</v>
+        <v>2181</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>11033</v>
+        <v>11986</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.005137782220602166</v>
+        <v>0.005137782220602167</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.001956805993903327</v>
+        <v>0.002024188181140947</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01024145657472502</v>
+        <v>0.01112641486043811</v>
       </c>
     </row>
     <row r="30">
@@ -10870,16 +10870,16 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8123</v>
+        <v>11178</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.007452668749678529</v>
+        <v>0.007452668749678532</v>
       </c>
       <c r="H30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0345308819681865</v>
+        <v>0.04751951541463643</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>30</v>
@@ -10888,19 +10888,19 @@
         <v>23251</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>15681</v>
+        <v>15493</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>34969</v>
+        <v>33776</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02761295454966742</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01862211505291919</v>
+        <v>0.01839968398008035</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0415283752830558</v>
+        <v>0.04011150807781239</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>31</v>
@@ -10909,19 +10909,19 @@
         <v>25004</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>16884</v>
+        <v>16328</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>37479</v>
+        <v>35852</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02321073601160334</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01567311242144612</v>
+        <v>0.01515695551025392</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03479028598592444</v>
+        <v>0.03327997709586649</v>
       </c>
     </row>
     <row r="31">
@@ -10938,19 +10938,19 @@
         <v>34780</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>17807</v>
+        <v>19122</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>54213</v>
+        <v>56307</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1478532134373449</v>
+        <v>0.147853213437345</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.07569891694229494</v>
+        <v>0.0812890252439136</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2304625998239761</v>
+        <v>0.2393658145174185</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>66</v>
@@ -10959,19 +10959,19 @@
         <v>56900</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>42665</v>
+        <v>44155</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>74859</v>
+        <v>76360</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.06757375190903638</v>
+        <v>0.06757375190903636</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05066820212365461</v>
+        <v>0.05243759192047965</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08890198585976064</v>
+        <v>0.09068435161515086</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>79</v>
@@ -10980,19 +10980,19 @@
         <v>91680</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>69329</v>
+        <v>68079</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>123947</v>
+        <v>120277</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.08510364891902407</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06435603650593071</v>
+        <v>0.06319499533910988</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1150560983992402</v>
+        <v>0.1116489324587011</v>
       </c>
     </row>
     <row r="32">
@@ -11009,19 +11009,19 @@
         <v>198702</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>178499</v>
+        <v>178022</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>215396</v>
+        <v>214017</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.8446941178129764</v>
+        <v>0.8446941178129765</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7588118293960543</v>
+        <v>0.7567840982583712</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9156611245715656</v>
+        <v>0.9098025316015111</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1052</v>
@@ -11030,19 +11030,19 @@
         <v>756357</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>737676</v>
+        <v>736180</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>773524</v>
+        <v>773093</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8982402058507953</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.876054663090273</v>
+        <v>0.8742788727510683</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9186272079303738</v>
+        <v>0.9181157981733123</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1149</v>
@@ -11051,19 +11051,19 @@
         <v>955058</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>925510</v>
+        <v>926316</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>978809</v>
+        <v>980907</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8865478328487704</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8591191593544062</v>
+        <v>0.8598669773239935</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9085946744007976</v>
+        <v>0.9105419249797196</v>
       </c>
     </row>
     <row r="33">
@@ -11155,19 +11155,19 @@
         <v>34906</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>24179</v>
+        <v>25002</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>48881</v>
+        <v>50868</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.01017288601491105</v>
+        <v>0.01017288601491106</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0070466951723182</v>
+        <v>0.007286470359690713</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01424574268211691</v>
+        <v>0.01482467495297822</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>39</v>
@@ -11176,19 +11176,19 @@
         <v>30340</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>21905</v>
+        <v>21820</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>42501</v>
+        <v>42258</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.008388784604116581</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.006056463467136216</v>
+        <v>0.006033148724731705</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01175114271178024</v>
+        <v>0.01168388533919238</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>76</v>
@@ -11197,19 +11197,19 @@
         <v>65246</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>51379</v>
+        <v>50764</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>84599</v>
+        <v>83733</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.009257361568654357</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.007289805214706908</v>
+        <v>0.007202626839192738</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01200321602445422</v>
+        <v>0.01188036772404742</v>
       </c>
     </row>
     <row r="35">
@@ -11226,19 +11226,19 @@
         <v>175894</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>145922</v>
+        <v>147018</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>204168</v>
+        <v>206245</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.05126197164998352</v>
+        <v>0.05126197164998351</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04252692454798941</v>
+        <v>0.04284634624038643</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05950212362271318</v>
+        <v>0.06010726980327417</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>194</v>
@@ -11247,19 +11247,19 @@
         <v>138596</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>118751</v>
+        <v>118461</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>161338</v>
+        <v>161429</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03832058628188226</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03283358543858858</v>
+        <v>0.03275338813822028</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04460867751309634</v>
+        <v>0.0446338350831002</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>347</v>
@@ -11268,19 +11268,19 @@
         <v>314490</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>283206</v>
+        <v>280914</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>356393</v>
+        <v>351057</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04462100684762435</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04018233608082335</v>
+        <v>0.03985710505757735</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05056635856173824</v>
+        <v>0.04980932678815558</v>
       </c>
     </row>
     <row r="36">
@@ -11297,19 +11297,19 @@
         <v>392330</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>354361</v>
+        <v>351608</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>439480</v>
+        <v>436634</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1143392560805877</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1032737418947927</v>
+        <v>0.1024714000791068</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1280807010585798</v>
+        <v>0.1272511902809201</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>505</v>
@@ -11318,19 +11318,19 @@
         <v>349898</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>318470</v>
+        <v>319359</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>387262</v>
+        <v>382820</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.09674409302667798</v>
+        <v>0.096744093026678</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08805424979730692</v>
+        <v>0.08830021708426714</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1070749306109233</v>
+        <v>0.1058466764775821</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>851</v>
@@ -11339,19 +11339,19 @@
         <v>742228</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>694135</v>
+        <v>688803</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>801993</v>
+        <v>797191</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1053101718512593</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.09848647343288884</v>
+        <v>0.09773006853145419</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1137897908355001</v>
+        <v>0.1131085589320269</v>
       </c>
     </row>
     <row r="37">
@@ -11368,19 +11368,19 @@
         <v>2828148</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2771323</v>
+        <v>2778420</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2874508</v>
+        <v>2875959</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.8242258862545175</v>
+        <v>0.8242258862545178</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8076648411894236</v>
+        <v>0.8097331439136245</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8377367028193092</v>
+        <v>0.8381596813276129</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>4483</v>
@@ -11389,19 +11389,19 @@
         <v>3097908</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3057525</v>
+        <v>3057610</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3136431</v>
+        <v>3135969</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.8565465360873231</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8453810139237385</v>
+        <v>0.8454044147292307</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8671977635354203</v>
+        <v>0.8670701805683401</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>7238</v>
@@ -11410,19 +11410,19 @@
         <v>5926055</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>5854240</v>
+        <v>5863766</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>5986267</v>
+        <v>5989662</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.8408114597324621</v>
+        <v>0.8408114597324622</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8306221190317975</v>
+        <v>0.8319735915058807</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.849354570413367</v>
+        <v>0.8498362914269341</v>
       </c>
     </row>
     <row r="38">
